--- a/bank statement generator/bank_statements/statement_110.xlsx
+++ b/bank statement generator/bank_statements/statement_110.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 18.10.2024</t>
+          <t>KONTOSTAND AM 23.01.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,80 +759,112 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>20.10.</t>
+          <t>25.01.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>21.10.</t>
+          <t>26.01.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>PAYPAL NZFTKS</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>25,41-</t>
+          <t>72,08-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>24.10.</t>
+          <t>27.01.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>25.10.</t>
+          <t>28.01.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./24.10 ALDI SUED RO</t>
+          <t>AMAZON.DE MKTPLC EU VNWRKO</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>126,81-</t>
+          <t>20,12-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>27.10.</t>
+          <t>28.01.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>28.10.</t>
+          <t>29.01.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 74785072</t>
+          <t>RECHNUNG VODAFONE GMBH 22884255</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>86,36-</t>
+          <t>40,44-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
-      <c r="D9" s="8" t="n"/>
-      <c r="E9" s="13" t="n"/>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>01.02.</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>02.02.</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+        </is>
+      </c>
+      <c r="E9" s="17" t="inlineStr">
+        <is>
+          <t>24,58-</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="12" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>02.02.</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>03.02.</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>KARTENZAHLUNG SHELL TANKSTELLE</t>
+        </is>
+      </c>
+      <c r="E10" s="17" t="inlineStr">
+        <is>
+          <t>53,40-</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="8" t="n"/>
@@ -845,12 +877,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 30.10.2024</t>
+          <t>KONTOSTAND AM 06.02.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>238,58-</t>
+          <t>210,62-</t>
         </is>
       </c>
     </row>
@@ -858,7 +890,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 04.11.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 11.02.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
